--- a/PHe-Ass1.xlsx
+++ b/PHe-Ass1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hepeiyu/Database Design And Implementation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{641CB0C4-A3BA-0044-BA25-19B537E49E44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F6F402D-3A75-8340-A270-54C5AF3DE4DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="460" yWindow="960" windowWidth="28040" windowHeight="16080" xr2:uid="{F9C7B7AA-8C55-8C4E-B809-350D9AAC64F6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="55">
   <si>
     <t>An AIGC Chatbox Company</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -198,10 +198,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$90k</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Steven</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -234,10 +230,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$72k</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>$6 million</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -247,6 +239,22 @@
   </si>
   <si>
     <t>Operation in 2024 in Europe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$810k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$110k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>By Office location</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>By Area</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -800,6 +808,331 @@
     </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>214521</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>141331</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>214881</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>141691</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="38" name="Ink 37">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A963714F-9135-63E3-0345-251C39CA3360}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="15015960" y="945360"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="38" name="Ink 37">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A963714F-9135-63E3-0345-251C39CA3360}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="15011640" y="941040"/>
+              <a:ext cx="9000" cy="9000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>312081</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114331</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>312441</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114691</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="39" name="Ink 38">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EF8417E-E04A-713E-0576-3349F509E1D5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="15113520" y="918360"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="39" name="Ink 38">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EF8417E-E04A-713E-0576-3349F509E1D5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="15109200" y="914040"/>
+              <a:ext cx="9000" cy="9000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>70485</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>92285</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>70845</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>92645</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="40" name="Ink 39">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F43C08F-640B-150F-F79B-30F7906B3B04}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="5826600" y="3308400"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="40" name="Ink 39">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F43C08F-640B-150F-F79B-30F7906B3B04}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5822280" y="3304080"/>
+              <a:ext cx="9000" cy="9000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>753827</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>129958</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>754187</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>130318</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="41" name="Ink 40">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DCF2DDB-C909-DC9A-6E90-BB919DDEF6F1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="5687640" y="3547080"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="41" name="Ink 40">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DCF2DDB-C909-DC9A-6E90-BB919DDEF6F1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5683320" y="3542760"/>
+              <a:ext cx="9000" cy="9000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>71205</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>103085</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>71565</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>105605</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId16">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="44" name="Ink 43">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC264F01-A62C-A181-7273-A90945B86A7F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="5827320" y="3319200"/>
+            <a:ext cx="360" cy="2520"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="44" name="Ink 43">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC264F01-A62C-A181-7273-A90945B86A7F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5823000" y="3314880"/>
+              <a:ext cx="9000" cy="11160"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -832,6 +1165,34 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4901">1981 1093 24575,'0'10'0,"0"3"0,0 6 0,0 0 0,0 3 0,0-2 0,0 4 0,0-1 0,0 1 0,0 0 0,-7 0 0,1 0 0,-5-1 0,0-3 0,2 3 0,2-8 0,0 8 0,2-7 0,1 2 0,-2-3 0,5 3 0,-3-6 0,4 6 0,0-11 0,0 4 0,0-5 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,0 1 0,4 3 0,-1-3 0,5 7 0,-2-7 0,1 3 0,0-3 0,-4-1 0,3-2 0,-3-1 0,7-3 0,1 0 0,7 0 0,2 0 0,8 0 0,13 0 0,-9 0 0,12 0 0,-19 0 0,4-4 0,-5 4 0,-1-8 0,-6 5 0,0-5 0,-9 4 0,2-2 0,-4 5 0,1-2 0,-4 1 0,0-2 0,-3-2 0,0 3 0,0 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6124">2744 0 24575,'0'2'0,"0"12"0,0 11 0,0 9 0,0 1 0,0-13 0,0 9 0,0-9 0,0 13 0,0-5 0,0-2 0,0 1 0,0 12 0,0-12 0,0 10 0,0-15 0,0 6 0,0 10 0,0-4 0,0 4 0,0-5 0,0 11 0,0-9 0,-4 21 0,-6-16 0,4 11 0,-12 0 0,12-5 0,-9 11 0,6-10 0,-1 3 0,1-10 0,4-2 0,-3-6 0,7 1 0,-3 0 0,4-1 0,0-4 0,0 3 0,0-8 0,0 9 0,0-4 0,0-1 0,0 5 0,0-4 0,0-1 0,0 5 0,4-4 0,-3 4 0,7 1 0,-4-5 0,1-6 0,2-1 0,-3-1 0,4-2 0,-1 1 0,0-7 0,0 1 0,1-1 0,2-2 0,-2 1 0,2-5 0,-3 2 0,0-3 0,-1-1 0,-8-17 0,-26-42 0,15 25 0,-15-23 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8062">3150 1187 24209,'0'7'0,"0"4"182,0 17-182,0 2 61,0 16-61,0-21-6723,0 39 6723,0-37 62,0 28-62,0-20 0,0-5 0,0-2 0,0-4 0,0 0 6784,0-4-6784,0 2 0,0-2 0,0 0 0,0 7 0,0-6 0,0 8 0,0-5 0,0-1 0,3-3 0,2 3 0,-1-8 0,3 4 0,-7-8 0,7-1 0,-7-4 0,3 1 0,0-1 0,1 1 0,6 0 0,1 3 0,3-2 0,5 3 0,-4-4 0,8 1 0,-3 0 0,4 0 0,-1-4 0,1 3 0,-4-6 0,3 2 0,-8-3 0,4 0 0,-5 0 0,1 0 0,-1 0 0,1 0 0,-4-3 0,9-7 0,-8-2 0,9-6 0,-10 4 0,8-6 0,-6 4 0,7-8 0,-5 5 0,1-5 0,0-5 0,-3 4 0,2-4 0,-5 1 0,1 2 0,-2-19 0,0 7 0,1-27 0,-4 20 0,-2-19 0,-4 15 0,0-12 0,0 1 0,0 5 0,0 8 0,0 7 0,4 10 0,-3 1 0,2 9 0,-3-1 0,0 9 0,0-1 0,0 12 0,0 16 0,0 2 0,0 18 0,0-5 0,0 5 0,0 5 0,-4-4 0,4 9 0,-8-9 0,7 4 0,-3-5 0,4-6 0,0 0 0,0-5 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 4 0,0 2 0,-4 5 0,3-1 0,-3 1 0,4-5 0,0-2 0,0-8 0,0-2 0,0-7 0,0-1 0,0-3 0,0 0 0,0-1 0,0 0 0,0 1 0,0 3 0,0 1 0,0 3 0,0 1 0,3-4 0,-2 2 0,5-5 0,-6 2 0,3-4 0,0-2 0,1-1 0,2-3 0,0 0 0,-2-6 0,-1 5 0,-3-5 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink10.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-02-01T05:35:38.085"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.025" units="cm"/>
+      <inkml:brushProperty name="height" value="0.025" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 7 24575,'0'-4'0,"0"2"0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="168">0 1 24575,'0'0'0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -955,6 +1316,115 @@
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">1 0 24575,'3'0'0,"0"0"0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="161">7 0 24575,'0'0'0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink6.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-02-01T05:34:27.106"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.025" units="cm"/>
+      <inkml:brushProperty name="height" value="0.025" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1 24575,'0'0'0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink7.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-02-01T05:34:26.307"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.025" units="cm"/>
+      <inkml:brushProperty name="height" value="0.025" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 1 24575,'0'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="14">0 1 24575,'0'0'0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink8.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-02-01T05:35:33.167"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.025" units="cm"/>
+      <inkml:brushProperty name="height" value="0.025" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1 24575,'0'0'0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink9.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-02-01T05:35:37.595"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.025" units="cm"/>
+      <inkml:brushProperty name="height" value="0.025" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 1 24575,'0'0'0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -1275,10 +1745,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CDA9BF8-F9E7-B045-9303-5204BE26C61E}">
-  <dimension ref="A1:S7"/>
+  <dimension ref="A1:S17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="139" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1300,13 +1770,13 @@
       <c r="F2" s="11"/>
       <c r="G2" s="12"/>
       <c r="I2" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J2" s="11"/>
       <c r="K2" s="11"/>
       <c r="L2" s="12"/>
       <c r="N2" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O2" s="11"/>
       <c r="P2" s="11"/>
@@ -1411,7 +1881,7 @@
         <v>39</v>
       </c>
       <c r="S4" s="6" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -1428,28 +1898,28 @@
         <v>26</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>32</v>
       </c>
       <c r="N5" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="O5" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="P5" s="1">
         <v>32</v>
       </c>
       <c r="Q5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R5" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="R5" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="S5" s="6" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -1472,7 +1942,7 @@
         <v>9</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O6" s="8" t="s">
         <v>38</v>
@@ -1481,13 +1951,13 @@
         <v>29</v>
       </c>
       <c r="Q6" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="R6" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="R6" s="8" t="s">
-        <v>48</v>
-      </c>
       <c r="S6" s="9" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -1508,6 +1978,16 @@
       </c>
       <c r="G7" s="9" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="G12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="8:8">
+      <c r="H17" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/PHe-Ass1.xlsx
+++ b/PHe-Ass1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hepeiyu/Database Design And Implementation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F6F402D-3A75-8340-A270-54C5AF3DE4DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AA39802-CBEC-584E-B3BE-F1468CA1A4CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="460" yWindow="960" windowWidth="28040" windowHeight="16080" xr2:uid="{F9C7B7AA-8C55-8C4E-B809-350D9AAC64F6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="58">
   <si>
     <t>An AIGC Chatbox Company</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -174,6 +174,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Operation in 2024</t>
+  </si>
+  <si>
     <t>210 million</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -238,10 +241,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Operation in 2024 in Europe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>$810k</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -255,6 +254,18 @@
   </si>
   <si>
     <t>By Area</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>110 million</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>310 million</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18 minutes</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -262,8 +273,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -421,7 +433,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -461,7 +473,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -550,13 +565,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>232423</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>169961</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>770263</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>136332</xdr:rowOff>
@@ -615,14 +630,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>779263</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>52219</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>126161</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>126160</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>170892</xdr:rowOff>
     </xdr:to>
@@ -745,13 +760,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>395143</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>148193</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>398023</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>148553</xdr:rowOff>
@@ -810,13 +825,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>214521</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>141331</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>214881</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>141691</xdr:rowOff>
@@ -875,13 +890,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>312081</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>114331</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>312441</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>114691</xdr:rowOff>
@@ -940,13 +955,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>70485</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>92285</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>70845</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>92645</xdr:rowOff>
@@ -1070,13 +1085,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>71205</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>103085</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>71565</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>105605</xdr:rowOff>
@@ -1745,20 +1760,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CDA9BF8-F9E7-B045-9303-5204BE26C61E}">
-  <dimension ref="A1:S17"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="139" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:20">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:20">
       <c r="A2" s="10" t="s">
         <v>6</v>
       </c>
@@ -1769,22 +1784,24 @@
       </c>
       <c r="F2" s="11"/>
       <c r="G2" s="12"/>
+      <c r="H2" s="1"/>
       <c r="I2" s="10" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="J2" s="11"/>
       <c r="K2" s="11"/>
-      <c r="L2" s="12"/>
-      <c r="N2" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="O2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="12"/>
+      <c r="O2" s="10" t="s">
+        <v>50</v>
+      </c>
       <c r="P2" s="11"/>
       <c r="Q2" s="11"/>
       <c r="R2" s="11"/>
-      <c r="S2" s="12"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="12"/>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:20">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -1803,38 +1820,42 @@
       <c r="G3" s="6" t="s">
         <v>10</v>
       </c>
+      <c r="H3" s="1"/>
       <c r="I3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="M3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="O3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="S3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="S3" s="6" t="s">
+      <c r="T3" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:20">
       <c r="A4" s="5" t="s">
         <v>20</v>
       </c>
@@ -1853,38 +1874,42 @@
       <c r="G4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="J4" s="8" t="s">
+      <c r="H4" s="1"/>
+      <c r="I4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="L4" s="13">
+      <c r="L4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M4" s="13">
         <v>4</v>
       </c>
-      <c r="N4" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="O4" s="1" t="s">
+      <c r="O4" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="P4" s="1">
+      <c r="P4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q4" s="1">
         <v>41</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="R4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="R4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="S4" s="6" t="s">
-        <v>44</v>
+      <c r="S4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="T4" s="6" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:20">
       <c r="A5" s="5" t="s">
         <v>22</v>
       </c>
@@ -1898,31 +1923,47 @@
         <v>26</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="N5" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="O5" s="1" t="s">
+      <c r="H5" s="1"/>
+      <c r="I5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="M5" s="14">
+        <v>3.5</v>
+      </c>
+      <c r="O5" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="P5" s="1">
+      <c r="P5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q5" s="1">
         <v>32</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="R5" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="S5" s="6" t="s">
+      <c r="S5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="T5" s="6" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:20">
       <c r="A6" s="5" t="s">
         <v>23</v>
       </c>
@@ -1941,26 +1982,27 @@
       <c r="G6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="N6" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="O6" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="P6" s="8">
+      <c r="H6" s="1"/>
+      <c r="O6" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P6" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q6" s="8">
         <v>29</v>
-      </c>
-      <c r="Q6" s="8" t="s">
-        <v>46</v>
       </c>
       <c r="R6" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="S6" s="9" t="s">
+      <c r="S6" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="T6" s="9" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:20">
       <c r="A7" s="7" t="s">
         <v>24</v>
       </c>
@@ -1979,14 +2021,15 @@
       <c r="G7" s="9" t="s">
         <v>9</v>
       </c>
+      <c r="H7" s="1"/>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:20">
       <c r="G12" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="8:8">
-      <c r="H17" t="s">
+    <row r="17" spans="9:9">
+      <c r="I17" t="s">
         <v>53</v>
       </c>
     </row>

--- a/PHe-Ass1.xlsx
+++ b/PHe-Ass1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hepeiyu/Database Design And Implementation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AA39802-CBEC-584E-B3BE-F1468CA1A4CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC4006AE-931B-024A-93E4-F91D7C982E23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="460" yWindow="960" windowWidth="28040" windowHeight="16080" xr2:uid="{F9C7B7AA-8C55-8C4E-B809-350D9AAC64F6}"/>
   </bookViews>

--- a/PHe-Ass1.xlsx
+++ b/PHe-Ass1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hepeiyu/Database Design And Implementation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC4006AE-931B-024A-93E4-F91D7C982E23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2918A2B-4A58-3C47-996D-322CB87A2625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="460" yWindow="960" windowWidth="28040" windowHeight="16080" xr2:uid="{F9C7B7AA-8C55-8C4E-B809-350D9AAC64F6}"/>
+    <workbookView xWindow="460" yWindow="500" windowWidth="28040" windowHeight="16080" xr2:uid="{F9C7B7AA-8C55-8C4E-B809-350D9AAC64F6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -433,11 +433,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -511,8 +508,8 @@
       <xdr:row>15</xdr:row>
       <xdr:rowOff>70812</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="13" name="Ink 12">
@@ -531,7 +528,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="13" name="Ink 12">
@@ -576,8 +573,8 @@
       <xdr:row>15</xdr:row>
       <xdr:rowOff>136332</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="16" name="Ink 15">
@@ -596,7 +593,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="16" name="Ink 15">
@@ -641,8 +638,8 @@
       <xdr:row>15</xdr:row>
       <xdr:rowOff>170892</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="17" name="Ink 16">
@@ -661,7 +658,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="17" name="Ink 16">
@@ -706,8 +703,8 @@
       <xdr:row>16</xdr:row>
       <xdr:rowOff>41885</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="32" name="Ink 31">
@@ -726,7 +723,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="32" name="Ink 31">
@@ -771,8 +768,8 @@
       <xdr:row>1</xdr:row>
       <xdr:rowOff>148553</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="35" name="Ink 34">
@@ -791,7 +788,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="35" name="Ink 34">
@@ -836,8 +833,8 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>141691</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="38" name="Ink 37">
@@ -856,7 +853,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="38" name="Ink 37">
@@ -901,8 +898,8 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>114691</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="39" name="Ink 38">
@@ -921,7 +918,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="39" name="Ink 38">
@@ -966,8 +963,8 @@
       <xdr:row>16</xdr:row>
       <xdr:rowOff>92645</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="40" name="Ink 39">
@@ -986,7 +983,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="40" name="Ink 39">
@@ -1031,8 +1028,8 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>130318</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="41" name="Ink 40">
@@ -1051,7 +1048,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="41" name="Ink 40">
@@ -1096,8 +1093,8 @@
       <xdr:row>16</xdr:row>
       <xdr:rowOff>105605</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId16">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="44" name="Ink 43">
@@ -1116,7 +1113,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="44" name="Ink 43">
@@ -1763,7 +1760,7 @@
   <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="139" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1774,254 +1771,248 @@
       </c>
     </row>
     <row r="2" spans="1:20">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="12"/>
-      <c r="E2" s="10" t="s">
+      <c r="B2" s="10"/>
+      <c r="C2" s="11"/>
+      <c r="E2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="11"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="10" t="s">
+      <c r="F2" s="10"/>
+      <c r="G2" s="11"/>
+      <c r="I2" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="12"/>
-      <c r="O2" s="10" t="s">
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="11"/>
+      <c r="O2" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11"/>
-      <c r="T2" s="12"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="11"/>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L3" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="M3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="O3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="P3" t="s">
         <v>16</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="Q3" t="s">
         <v>17</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="R3" t="s">
         <v>1</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="S3" t="s">
         <v>18</v>
       </c>
-      <c r="T3" s="6" t="s">
+      <c r="T3" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:20">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4">
         <v>13</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>300</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" t="s">
         <v>35</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="K4" t="s">
         <v>36</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="L4" t="s">
         <v>37</v>
       </c>
-      <c r="M4" s="13">
+      <c r="M4" s="12">
         <v>4</v>
       </c>
-      <c r="O4" s="5" t="s">
+      <c r="O4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="P4" t="s">
         <v>39</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="Q4">
         <v>41</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="R4" t="s">
         <v>4</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="S4" t="s">
         <v>40</v>
       </c>
-      <c r="T4" s="6" t="s">
+      <c r="T4" s="5" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:20">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5">
         <v>22</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>675</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" t="s">
         <v>49</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="J5" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="K5" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="L5" s="8" t="s">
+      <c r="L5" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="M5" s="14">
+      <c r="M5" s="13">
         <v>3.5</v>
       </c>
-      <c r="O5" s="5" t="s">
+      <c r="O5" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="P5" t="s">
         <v>42</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="Q5">
         <v>32</v>
       </c>
-      <c r="R5" s="1" t="s">
+      <c r="R5" t="s">
         <v>43</v>
       </c>
-      <c r="S5" s="1" t="s">
+      <c r="S5" t="s">
         <v>44</v>
       </c>
-      <c r="T5" s="6" t="s">
+      <c r="T5" s="5" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:20">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6">
         <v>31</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <v>1100</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="1"/>
-      <c r="O6" s="7" t="s">
+      <c r="O6" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="P6" s="8" t="s">
+      <c r="P6" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="Q6" s="8">
+      <c r="Q6" s="7">
         <v>29</v>
       </c>
-      <c r="R6" s="8" t="s">
+      <c r="R6" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="S6" s="8" t="s">
+      <c r="S6" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="T6" s="9" t="s">
+      <c r="T6" s="8" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:20">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="7">
         <v>11</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="8">
         <v>210</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="1"/>
     </row>
     <row r="12" spans="1:20">
       <c r="G12" t="s">

--- a/PHe-Ass1.xlsx
+++ b/PHe-Ass1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hepeiyu/Database Design And Implementation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2918A2B-4A58-3C47-996D-322CB87A2625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0652AC8F-325D-3149-92F8-2C6A24903303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="460" yWindow="500" windowWidth="28040" windowHeight="16080" xr2:uid="{F9C7B7AA-8C55-8C4E-B809-350D9AAC64F6}"/>
   </bookViews>
@@ -1286,20 +1286,20 @@
       <inkml:brushProperty name="height" value="0.025" units="cm"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">8569 1734 24575,'0'14'0,"0"12"0,0 16 0,0 43 0,0-23-553,0-3 1,0 2 552,0 23 0,0-22 0,0 3 0,0-4 0,0-2 0,0 40-99,0-2 99,0-28 0,0-6 0,0-9 0,0-19 0,0-14 0,0-7 818,2-10-818,10-1 386,8-3-386,15 0 0,13 0 0,20 0 0,-9 0 0,6 0-1250,7 0 1,5 0 1249,-7 0 0,3 0 0,3 0-1729,3 0 1,2 0-1,8 0 1729,-11 0 0,6 0 0,4 0 0,0 0 0,-2 0-848,-3 0 0,-2 0 1,0 0-1,3 0 1,3 0 847,1 0 0,4 0 0,3 0 0,0 0 0,1 0 0,-2 0-473,-3 0 1,0 0-1,0 0 1,0 0 0,0 0-1,1 0 473,3 0 0,1 0 0,0 0 0,0 0 0,1 0 0,1 0-195,-11 0 0,2 0 1,0 0-1,1 0 0,-2 0 1,-1 0-1,-4 0 195,17 0 0,-4 0 0,-2 0 0,1 0 0,2 0-23,-7-1 0,4-1 0,0 1 1,-2-1-1,-4 0 0,-8 0 23,20-1 0,-10 0 0,2-1 239,-12 1 0,3-2 0,-2 1 0,-4-1-239,2 0 0,-5-1 0,-4 1 895,13-2 1,-2 0-896,20-1 0,-3 1 1589,-33 3 1,-6 0-1590,27-2 4574,-36 6-4574,-20 0 3228,-15 0-3228,-5 0 1994,-4 0-1994,0 0 536,13 0-536,3 0 0,18-4 0,7 3 0,8-3 0,-7 0 0,32 3 0,-37-3 0,36 4 0,-30-4 0,12 3 0,-1-4 0,-6 5 0,-1-4 0,-12 3 0,5-3 0,-15 0 0,3 3 0,-10-2 0,-5 0 0,-4 2 0,-5-3 0,-3 4 0,0-3 0,3 3 0,1-3 0,7-1 0,2 0 0,4-4 0,4-1 0,2 1 0,5-1 0,-1 1 0,-4-1 0,-1 1 0,-6 0 0,1 3 0,-8 2 0,2-1 0,-11 4 0,4-4 0,-5 4 0,-3-5 0,0-12 0,-8-25 0,-7-31 0,5 12 0,0-10-1240,2-7 0,1-8 0,1 1 1240,0 10 0,0 1 0,2-6-900,0-11 1,1-9 0,1 1 0,-1 8 899,0 12 0,0 6 0,0-4 0,0-5 0,0-7 0,0 2 0,0 10-776,0-10 0,0 4 776,0 6 0,0-5 0,0 7 0,0 4 0,0 5-226,0-8 0,0 4 226,0 15 0,0 6 2477,0-14-2477,0 26 3726,0 13-3726,0 13 2321,-5 4-2321,-3 4 797,-14 7-797,-10 5 0,-9 9 0,-10 9 0,-3 5 0,11-3 0,-1 1-388,-23 12 0,0-1 388,23-10 0,3-1 0,-3-1 0,1-1 0,-23 17-6527,2 2 6527,13-11 0,15-9 0,10-10 0,8-6 0,7-4 519,3 0-519,3-4 1696,4-2 0,-1-2 0,2-2 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1487">16471 37 24575,'4'17'0,"13"8"0,14 8 0,20 7 0,7 2 0,13 7-1138,3-3 1138,-31-17 0,2 0 0,3-7 0,-1-1 278,29 19-278,5-9 0,-27-6 0,7-3 0,-12 0 0,-3-12 0,-14 5 860,-7-6-860,-1 4 0,-13-6 0,2 3 0,-3-3 0,-2 0 0,2 0 0,-1-1 0,-2 1 0,3-1 0,-4-2 0,-2-1 0,-1-3 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-45090">0 510 24575,'0'96'0,"0"1"0,0 0 0,0-1 0,0 1 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0 6 0,0-19 0,0-8 0,0 0 0,0 10 0,0 18 0,0-34 0,0 11 0,0 8 0,0 8 0,0 6 0,0 6 0,0 4 0,0 3 0,0 1 0,0 1 0,0 0 0,0-3 0,0-2 0,0-4 0,0-6 0,0-7 0,0-7 0,0-9 0,0-10 0,0-11 0,0-13-1567,0 31 0,0-16 1567,0 14 0,0 7 0,0-19-6624,0-16 6624,0-13 1883,0-23-1883,7-4 0,10 0 0,14-2 0,16 4 0,38 2-42,-33-5 1,4 0 41,21 4 0,6 0 1499,14 2 1,4 0-1500,-20-2 0,2 1 0,3 1-1455,8 4 0,4 2 1,2 0 1454,-15-6 0,2 0 0,2 1 0,0 1 0,6 3 0,1 3 0,1 0 0,2-1-668,-14-4 0,2 0 0,0-1 0,2 1 0,-1 0 668,2 2 0,1 0 0,0 0 0,1 0 0,0 0 0,1-1 0,2-1 0,0 0 0,-1 0 0,0 0 0,-2 0 0,-1 0 0,0-1 0,0 1 0,0-1 0,0-1 0,0 0 0,0 0 0,-1-1 0,-1 0 0,-6-1 0,0-1 0,-1 0 0,-2 0 0,-3 1 0,0 0 0,-4 0 0,0 0 0,5 0 0,4-1 0,8 1 0,1-1 0,-6 0 0,-10-1 0,19 4 0,-3 0 0,-5-2 0,12 2 0,0-1 0,-12-2 0,9-1 0,-7-2 0,-15 3 0,2 1 0,-2-2-401,23-1 1,-3 0 400,-7 3 0,-2-1 406,-11-3 1,-3-1-407,0 1 0,-2-1 1276,-7-2 1,-1-1-1277,-1 3 0,0-1 0,-4-4 0,0 0 0,-4 2 0,0-1 2021,3-1 0,-1-2-2021,41 1 0,6 0 0,-15 0 0,-15 0 0,-17 0 0,-1 0 0,13 0 3155,29 0-3155,-46 0 1426,-8-4-1426,-10 3 931,-6-2-931,-9 3 544,-5-3-544,-3 2 0,-1-2 0,-2 0 0,1 3 0,7-7 0,4 3 0,38-17 0,-6 4 0,34-12 0,-6 8-413,9-7 413,-36 13 0,2 0 0,42-15 0,-39 13 0,0-1 0,-3 3 0,0-1 0,4-2 0,0 0 0,-4 2 0,0 1 0,4 0 0,-3 0 0,17-5 0,-13 5 0,-2 0 0,-4-1 0,40-12 0,-37 13 0,7-5 0,-11 1 0,2 4 0,-20 3 413,3 3-413,-14 2 0,-2-1 0,0 4 0,17 1 0,2 7 0,36 2 0,-9 4 0,34-4-1638,-3 4 1638,-18-9 0,5 0-965,-8 4 0,2 2 965,-11-4 0,4-1 0,0 1-938,0 1 1,0 2-1,1-1 938,5 1 0,2-1 0,7 0-642,-9-1 0,7 0 0,3 0 0,-2 0 0,-5 0 642,17 1 0,-6 0 0,12 2-425,-25-2 0,8 2 0,6-1 1,2 2-1,1-1 0,-4 0 0,-5 0 425,7 0 0,-5 0 0,-1 0 0,1 0 0,6 1-289,-8 0 1,4 0 0,3 1 0,1 0 0,1 0 0,-1 0-1,-2-1 289,-2-1 0,0 0 0,1 0 0,-1 0 0,-2-1 0,-2 1 0,-3 0-103,10 1 1,-5 0 0,-1 0 0,0 0 0,4 1 102,1-2 0,4 0 0,1 1 0,1-1 0,-3 1 0,-5 0-145,-3 2 1,-4 0-1,-1 0 1,0 0 0,4 0 144,-2-1 0,3 0 0,1 1 0,1-1 0,-1 0 0,-2 1 87,11 3 0,-1 0 1,-1 0-1,-4 0 1,-3-1-88,-2-1 0,-4-1 0,-2 0 0,1 0 264,5 1 1,1 1 0,-2-1 0,-5-1-265,-5-1 0,-4-1 0,-1 0 378,0 0 1,0 0-1,-1 0-378,30 4 0,-8-2 3222,10 2-3222,-43-8 0,-2-1 0,16 2 3862,-4-5-3862,-35-10 0,15 7 0,49-8 383,-24 10 1,8 2-384,-5-1 0,7 0 0,1 0 0,7 0 0,3 0 0,2 0-979,-18 0 1,2 0 0,2 0 0,5 0 978,3 0 0,5 0 0,4 0 0,1 0 0,2 0-574,-8 2 1,2 0-1,2 0 1,1 0-1,2 0 1,2 0 573,-12-1 0,3-1 0,1 1 0,1-1 0,1 0 0,1 0 0,-1 0 0,0 1-323,1 0 0,0 0 1,0 1-1,1-1 1,-1 1-1,1 0 0,0-1 1,1 1 322,-8-1 0,1 1 0,2-1 0,-1 1 0,1-1 0,-2 0 0,-2 1 0,-2-1 0,-2 0-186,16 0 0,-3-1 0,-4 0 1,0 0-1,1 0 0,3 2 186,-2 0 0,3 1 0,1 1 0,1-1 0,-2 1 0,-4 0 0,-4-1 145,8 0 0,-5-1 0,-3 0 0,-2 1 0,1 0-145,-3 0 0,-1 1 0,-1 0 0,0 0 0,1 1 0,4-1 0,3 0 0,-1 0 0,-4 0 0,-7 0 0,8 2 0,-8 0 0,2-1 0,17-1 0,2-1 0,-8 0 0,-6 2 0,-6-2 984,13 0 0,-9-6-984,-9-16 3340,22 11-3340,-45-35 5017,-19 10-5017,24-21 0,-18 19 0,3-2 1285,5-5 1,2-2-1286,13-5 0,4-2-517,5-4 1,1 2 516,-2 5 0,-1 3 0,-13 9 0,-1 3-330,4-3 0,-3 3 330,22-8 0,-31 14 0,0 0 0,28-12 0,-8 2 0,-15 12 1379,-1 5-1379,-6 6 2222,-6 5-2222,5 4 855,-10 1-855,-1 4 0,-2 0 0,-8 0 0,4 0 0,-5 0 0,-5 0 0,4 0 0,-11 0 0,6 0 0,-7 0 0,0 0 0,2 0 0,-2 0 0,0 0 0,3 0 0,-3 0 0,0 0 0,-1 0 0,-4 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,4 0 0,-3 0 0,3 0 0,-4 0 0,1 0 0,-1 0 0,1 3 0,-1-2 0,1 2 0,-1-3 0,1 0 0,-1 0 0,-2 3 0,1-3 0,-1 3 0,-1-8 0,0 1 0,-6-15 0,2 6 0,-2-8 0,-4 0 0,6 1 0,-9-2 0,6-1 0,-4 3 0,-1-9 0,-4-12 0,3 3 0,-4-13 0,1 9 0,2-11 0,-3 5 0,4-5 0,1 12 0,0-5 0,4 10 0,-3 1 0,3 1 0,1 4 0,-4-10 0,2-7 0,-8-8 0,3-5 0,-9-7 0,4-2 0,-1 6 0,-2-3 0,7 5 0,-7-1 0,3-5 0,1 6 0,0 7 0,5-5 0,-5-10 0,3 6 0,-4-19 0,0 6-456,4-9 456,-10-7 0,13 43 0,-1-1 0,-2-1 0,0 0 0,3-3 0,-1-2 0,-7-20 0,1 1 0,5-17 0,-5 23 0,1 2 0,8 3 0,-9-13 0,5 10 0,1 7 0,0-1 0,0-6 0,-1-2 0,5 0 0,-3 8 0,8 2 0,-3 5 0,0-1 0,3 3 0,-3 11 0,4 6 0,0 12 0,0 4 456,0 8-456,0 1 0,0-9 0,0-9 0,0-19 0,0-8 0,0 1 0,0-5 0,0 10 0,0-3 0,0 10 0,0 7 0,0 3 0,0 15 0,0 0 0,0 5 0,0-14 0,0-14 0,0-14 0,0-21 0,0 5 0,0 0 0,0-3 0,0 17 0,0-5 0,0 13 0,0 8 0,0 10 0,0 6 0,0 1 0,0 7 0,-7-2 0,5 3 0,-4-4 0,2 0 0,3-5 0,-6 0 0,6 0 0,-2 4 0,-1-3 0,3 11 0,-2-2 0,3 7 0,0 1 0,-3-1 0,2 4 0,-1 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-42654">27808 542 24575,'-5'14'0,"-13"8"0,-12 28 0,-18 11 0,6 8 0,-1 2 0,11-30 0,0 2 0,-19 36 0,1 3-970,15-31 1,1-2 969,-7 14 0,2 1 0,12-16 0,0-2 36,-5 2 1,2-3-37,2 11 0,-13 3 0,17-17 0,6-16 0,8-11 0,3-5 0,0-7 360,1 0 0,2-3 1,1 0-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-41552">27826 548 24575,'8'14'0,"12"14"0,16 17 0,26 22 0,-16-12 0,-3-14 0,1 0 0,13 24 0,-11-21 0,-1-1 0,5 15 0,18 7 0,-36-26 0,18 3 0,-22-10 0,-3-15 0,-17-7 0,-4-6 0,-11-1 0,2-3 0,-1 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5801">9986 2084 24575,'10'0'0,"0"0"0,11 0 0,-8 0 0,3 0 0,-9 0 0,-1 0 0,1 0 0,-4 3 0,0 4 0,-7 7 0,0 2 0,0 7 0,-7-4 0,6 10 0,-7-4 0,-1 8 0,4-3 0,-7 5 0,2-1 0,0 6 0,-2-4 0,2 4 0,0 0 0,2-8 0,-1 6 0,4-8 0,-4 0 0,5-1 0,0-1 0,0-3 0,-1 4 0,1-5 0,0-1 0,4 1 0,-3 0 0,3-4 0,-4 2 0,3-6 0,2 2 0,0-7 0,2 3 0,-2-7 0,0 3 0,3-3 0,-3-1 0,-4 1 0,3-1 0,-7 1 0,5-1 0,-4 4 0,3-3 0,-3 0 0,6-2 0,-1-4 0,9 2 0,5-3 0,14 0 0,7-4 0,5-1 0,20-4 0,-15 0 0,15 0 0,-20 0 0,-9 4 0,-3-2 0,-9 7 0,1-7 0,-4 6 0,-1-5 0,-6 5 0,-1-2 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7201">10272 2606 24575,'0'13'0,"0"7"0,0 0 0,0 2 0,0-4 0,0 11 0,0 4 0,0-4 0,0 4 0,0-17 0,0 4 0,0-5 0,0-5 0,0-4 0,0-5 0,0-9 0,0-8 0,4-8 0,4-4 0,2-2 0,6-5 0,-7 5 0,4-3 0,-6 12 0,1-7 0,0 12 0,-1-2 0,0 3 0,1 0 0,-1 1 0,0-1 0,1-3 0,3-2 0,1 0 0,3-3 0,5 3 0,-4 0 0,4 0 0,-6 8 0,5 2 0,-3 2 0,6 0 0,-10 4 0,6-3 0,-7 6 0,3-2 0,-3 3 0,3 0 0,-3 0 0,0 0 0,-1 0 0,0 3 0,-3 1 0,4 6 0,-4 6 0,1 3 0,0 10 0,0 1 0,1 4 0,-4 19 0,-1-8 0,-4 9 0,0-3 0,0-8 0,0 16 0,0-11 0,0 5 0,0-6 0,0-6 0,0-6 0,0-6 0,-4-9 0,3-5 0,-2-5 0,0-4 0,3 1 0,-3-1 0,3-2 0,0-1 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8441">11550 2610 24575,'-3'-4'0,"0"2"0,-7 2 0,-1 0 0,-4 0 0,1 0 0,-5 0 0,-1 0 0,-10 0 0,4 0 0,0 0 0,11 0 0,1 3 0,3-2 0,0 5 0,1-2 0,0 2 0,2 1 0,-6 0 0,3 0 0,-3 4 0,-1 0 0,1 3 0,-1 1 0,4-1 0,-3 1 0,6-1 0,-3 1 0,4-1 0,0 1 0,-1-1 0,4 5 0,-3 0 0,6 1 0,-2 8 0,3-3 0,0 10 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,3-5 0,2 3 0,3-12 0,3 6 0,6-6 0,4 0 0,3-1 0,16-2 0,-2-5 0,10-3 0,-3-6 0,-3-4 0,14 0 0,-17 0 0,5 0 0,-27 0 0,0-3 0,-9-1 0,2-6 0,-3-1 0,-3-8 0,3-1 0,-6 7 0,2 2 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9366">11913 1972 24575,'0'2'0,"0"12"0,0 16 0,0 18 0,0 0 0,0 11 0,0-11 0,0 26 0,0-16 0,0-7 0,0 17 0,0-44 0,0 35 0,0-24 0,0 6 0,0 1 0,0 3 0,0-3 0,0-1 0,0 4 0,0-9 0,0 10 0,0-10 0,0-1 0,0-2 0,0-3 0,0 5 0,0-5 0,0 3 0,0-8 0,0 4 0,0-10 0,0 0 0,0-8 0,0-1 0,0-4 0,0 1 0,0 0 0,0-7 0,0-24 0,0 14 0,0-16 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10694">12277 2806 21523,'4'2'0,"-2"3"1464,-2 8-1464,0 22 515,0-19-515,0 27 263,0-21-263,0 8 810,0 4-810,0 1 0,0-4 0,0 4 0,0-16 0,0 0 0,0-1 0,0-6 0,0 6 0,0-11 0,0 4 0,0-5 0,3 0 0,5 1 0,7-3 0,0-1 0,8-3 0,7-4 0,-7-8 0,16-7 0,-11-12 0,9-2 0,1-5 0,-1 1 0,-4-1 0,4 1 0,-9 4 0,-1-2 0,-6 4 0,0 0 0,-6-2 0,4 7 0,-6-3 0,0 0 0,-2 4 0,-2-8 0,-1 8 0,0-9 0,0 9 0,0 0 0,0 3 0,-4 9 0,3-4 0,-6 9 0,2 4 0,-3 17 0,0 14 0,0 9 0,-5 15 0,-10 33 0,3-26 0,-12 34 0,13-49 0,-3 10 0,5-7 0,3-4 0,-2-2 0,7-6 0,-2-8 0,-1 2 0,3-13 0,-3 4 0,4-5 0,0 1 0,0-4 0,0-1 0,0-4 0,0 1 0,0-32 0,0 5 0,0-13 0,0 18 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12432">13829 2914 24575,'-2'-4'0,"-5"1"0,-3 3 0,-4 0 0,-1 0 0,4 0 0,-7 0 0,6 0 0,-7 0 0,5 0 0,-5 0 0,7 0 0,-10 0 0,6 0 0,-8 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,3 0 0,-3 0 0,3 0 0,0 0 0,-2 0 0,6 0 0,-3 0 0,8 0 0,-2 4 0,5-1 0,-6 5 0,6 2 0,-2 1 0,-1 3 0,3 5 0,-3 1 0,3 3 0,0 6 0,-1 1 0,4 4 0,-2 1 0,6 0 0,-3-1 0,4 1 0,0-1 0,0 1 0,0 0 0,7 5 0,1-13 0,7 2 0,0-14 0,-1-4 0,0 0 0,1-4 0,-1-3 0,5-1 0,1-3 0,8 0 0,2-4 0,6-9 0,0-11 0,9-17 0,1-10 0,5-16-834,-17 15 1,-1-4 833,-2-4 0,0-3 0,6-19 0,-3 0 0,-9 17 0,-1 0 0,4-18 0,-3 3 0,-4-14-524,1 23 1,0 0 523,-3-18-247,-4 34 0,0 2 247,2-25 0,-1 3 0,-3 11 1531,-6 23-1531,0-2 1108,-7 31-1108,0-3 569,0 9-569,0 7 0,0 8 0,-8 20 0,-2 2 0,-14 21 0,-15 37 0,3-5-3392,3-2 0,1 3 3392,14-28 0,2-2 0,-4 7 0,2-1-177,-4 34 177,10-31 0,-4 19 0,5-14 0,1-2 0,4-13 0,-2-1 0,3-12 6696,-1 5-6696,-1-10 265,2-1-265,0-2 0,-2-3 0,2 0 0,1-2 0,-4-4 0,8 0 0,-4-4 0,4-2 0,0-3 0,0-4 0,0-1 0,0-4 0,0 1 0,0-4 0,0 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="13904">14099 3123 24575,'2'3'0,"6"0"0,2-3 0,1 0 0,3 0 0,-7 0 0,3 0 0,-3 0 0,-1 0 0,-2-3 0,-2-4 0,-2-8 0,0-1 0,0-7 0,0 8 0,0-8 0,0 3 0,0 4 0,0-2 0,-6 7 0,4 0 0,-11 0 0,5 7 0,-3 1 0,-7 3 0,6 0 0,-11 0 0,4 0 0,-10 0 0,-1 0 0,-5 4 0,1 1 0,4 7 0,-4-3 0,9 6 0,1-6 0,5 2 0,8-4 0,1 0 0,3-4 0,0 3 0,0 6 0,0 4 0,-5 8 0,3 4 0,-3 2 0,4 0 0,-1 3 0,4-3 0,2 5 0,3-1 0,0 1 0,0-5 0,0 3 0,0-8 0,3 3 0,5-4 0,4 0 0,9 1 0,-1-8 0,5 2 0,15-9 0,-12 2 0,22-7 0,-13-1 0,10-4 0,-6 0 0,4 0 0,-14 0 0,3 0 0,-14-4 0,-1 0 0,-8 0 0,-1 1 0,-4 0 0,1 2 0,-1-5 0,1-1 0,0-4 0,0-4 0,5-3 0,-4-7 0,0 11 0,-4-2 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="14709">13935 3359 24575,'17'0'0,"2"0"0,9 0 0,-7 0 0,7 0 0,-4-4 0,1 3 0,0-2 0,-10 3 0,-8 0 0,-4 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="15917">15053 2838 24575,'-9'0'0,"2"0"0,-6 0 0,-7 0 0,1 0 0,-5 0 0,2 4 0,2 4 0,-8 5 0,10 6 0,-9-1 0,10 1 0,0-4 0,0-3 0,12 2 0,-5-6 0,9 2 0,-4-4 0,4 1 0,-2-1 0,3 0 0,0 1 0,0-1 0,0 1 0,6-1 0,6 5 0,14 7 0,10 0 0,-4 0 0,12 0 0,-7-4 0,4 4 0,5 0 0,-10-4 0,-1 2 0,-6-7 0,-10 2 0,0 0 0,-5-3 0,-3 2 0,-1-3 0,-3 0 0,-3-1 0,-2 1 0,-2-1 0,-3 4 0,-8 2 0,-6 3 0,-8 5 0,-4-2 0,3 2 0,-7-2 0,3-2 0,0-3 0,-15 5 0,7-8 0,-21 4 0,4-9 0,-12 0 0,11-5 0,-9 0 0,3 0 0,0 0 0,1 0 0,14 0 0,11 0 0,8 0 0,11 0 0,0-3 0,12-1 0,-4 0 0,8-2 0,-2 2 0,3 1 0,0 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">8601 1753 24575,'0'14'0,"0"13"0,0 15 0,0 44 0,0-23-553,0-4 1,0 3 552,0 23 0,0-22 0,0 2 0,0-3 0,0-2 0,0 40-99,0-2 99,0-28 0,0-7 0,0-8 0,0-20 0,0-13 0,0-8 818,2-10-818,10-1 386,8-3-386,15 0 0,14 0 0,19 0 0,-9 0 0,6 0-1250,7 0 1,6 0 1249,-8 0 0,3 0 0,4 0-1729,2 0 1,2 0-1,9 0 1729,-12 0 0,6 0 0,4 0 0,1 0 0,-3 0-848,-3 0 0,-1 0 1,-1 0-1,3 0 1,4 0 847,0 0 0,4 0 0,4 0 0,-1 0 0,1 0 0,-1 0-473,-4 0 1,0 0-1,1 0 1,-1 0 0,0 0-1,2 0 473,2 0 0,2 0 0,-1 0 0,0 0 0,2 0 0,0 0-195,-11 0 0,3 0 1,-1 0-1,1 0 0,-1 0 1,-2 0-1,-4 0 195,18 0 0,-5 0 0,-2 0 0,2 0 0,1 0-23,-7-1 0,5-1 0,-1 1 1,-2-1-1,-3 0 0,-9 0 23,20-1 0,-9 0 0,1-1 239,-12 1 0,4-2 0,-3 0 0,-4 0-239,3 0 0,-6-1 0,-4 1 895,13-2 1,-1 0-896,19-1 0,-2 1 1589,-34 3 1,-6 0-1590,27-2 4574,-35 6-4574,-21 0 3228,-15 0-3228,-5 0 1994,-4 0-1994,0 0 536,13 0-536,3 0 0,18-4 0,7 3 0,8-3 0,-6 0 0,31 3 0,-37-3 0,36 4 0,-29-4 0,11 3 0,-1-5 0,-6 6 0,-1-4 0,-11 3 0,4-3 0,-15 0 0,3 3 0,-10-2 0,-5 0 0,-4 2 0,-5-3 0,-3 4 0,0-3 0,3 3 0,1-3 0,7-1 0,3 0 0,3-4 0,4-1 0,2 1 0,5-1 0,-1 1 0,-4-2 0,-1 2 0,-6 0 0,1 3 0,-7 2 0,1-1 0,-11 4 0,4-4 0,-5 4 0,-3-5 0,0-12 0,-8-26 0,-7-30 0,5 11 0,0-10-1240,2-7 0,1-8 0,1 1 1240,0 11 0,0 0 0,2-6-900,0-11 1,1-9 0,1 1 0,-1 8 899,0 12 0,0 6 0,0-4 0,0-5 0,0-7 0,0 2 0,0 10-776,0-10 0,0 4 776,0 7 0,0-6 0,0 7 0,0 4 0,0 5-226,0-7 0,0 3 226,0 15 0,0 7 2477,0-15-2477,0 26 3726,0 14-3726,0 13 2321,-5 4-2321,-4 4 797,-13 7-797,-10 5 0,-9 9 0,-10 10 0,-3 4 0,11-3 0,-2 2-388,-22 11 0,0 0 388,23-11 0,3-1 0,-4 0 0,2-2 0,-23 17-6527,2 3 6527,13-12 0,14-8 0,11-11 0,8-6 0,7-4 519,3 0-519,3-4 1696,4-2 0,-1-2 0,2-2 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1487">16533 37 24575,'4'18'0,"13"7"0,14 8 0,20 8 0,7 1 0,14 8-1138,2-4 1138,-31-16 0,2-1 0,3-7 0,-1-1 278,30 20-278,4-10 0,-27-6 0,7-2 0,-11-1 0,-4-12 0,-14 5 860,-7-6-860,-1 4 0,-13-6 0,2 4 0,-3-4 0,-2 0 0,2 0 0,-1-1 0,-2 1 0,3-1 0,-4-2 0,-2-1 0,-1-3 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-45090">0 516 24575,'0'97'0,"0"1"0,0 0 0,0-1 0,0 1 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0-1 0,0 1 0,0 1 0,0-2 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0 6 0,0-19 0,0-8 0,0 0 0,0 10 0,0 18 0,0-34 0,0 11 0,0 8 0,0 8 0,0 6 0,0 6 0,0 4 0,0 3 0,0 2 0,0 0 0,0 0 0,0-2 0,0-3 0,0-4 0,0-6 0,0-7 0,0-7 0,0-9 0,0-10 0,0-11 0,0-14-1567,0 32 0,0-16 1567,0 13 0,0 8 0,0-19-6624,0-16 6624,0-14 1883,0-23-1883,7-4 0,10 0 0,14-2 0,16 4 0,39 3-42,-34-6 1,4 0 41,21 4 0,7 0 1499,13 2 1,4 0-1500,-19-2 0,1 1 0,3 2-1455,9 3 0,3 2 1,2 0 1454,-14-6 0,1 0 0,2 2 0,1 0 0,5 3 0,1 3 0,2 0 0,1 0-668,-13-5 0,1 0 0,0-1 0,3 1 0,-2 0 668,2 3 0,2-1 0,-1 0 0,1 0 0,1 0 0,0-1 0,2 0 0,1-1 0,-2 0 0,0 0 0,-1 0 0,-2 0 0,0 0 0,1 0 0,-1-1 0,0-1 0,1 0 0,-1 0 0,-1 0 0,0-1 0,-7-1 0,0-1 0,0 0 0,-3 0 0,-3 1 0,1 0 0,-5 0 0,0 1 0,5-1 0,5-1 0,7 1 0,1-1 0,-5 0 0,-11-1 0,19 4 0,-2 1 0,-6-3 0,12 2 0,1-1 0,-13-2 0,9-1 0,-6-2 0,-16 3 0,2 1 0,-1-1-401,22-2 1,-3 0 400,-6 3 0,-3-1 406,-11-3 1,-3-1-407,1 1 0,-3-1 1276,-7-2 1,-1-1-1277,0 3 0,-1-1 0,-4-4 0,0 0 0,-4 3 0,1-2 2021,2-1 0,-1-2-2021,41 1 0,7 0 0,-16 0 0,-15 0 0,-16 0 0,-2 0 0,13 0 3155,29 0-3155,-46 0 1426,-7-5-1426,-11 4 931,-6-2-931,-9 3 544,-5-3-544,-3 2 0,-1-2 0,-2 0 0,1 3 0,7-7 0,4 3 0,38-17 0,-5 4 0,33-13 0,-6 9-413,9-7 413,-35 13 0,1 0 0,42-16 0,-39 14 0,1-1 0,-4 3 0,0-1 0,4-3 0,0 1 0,-3 2 0,-1 1 0,4 0 0,-3-1 0,17-4 0,-12 5 0,-3 0 0,-4-1 0,40-13 0,-36 14 0,6-5 0,-11 1 0,2 4 0,-20 3 413,3 2-413,-14 3 0,-2-1 0,1 4 0,16 1 0,2 7 0,36 2 0,-9 4 0,35-4-1638,-4 5 1638,-18-10 0,6 0-965,-9 4 0,2 2 965,-11-4 0,5-1 0,-1 1-938,0 1 1,1 2-1,0-1 938,5 1 0,2-1 0,8 0-642,-10-1 0,7 0 0,4 0 0,-3 0 0,-5 0 642,18 1 0,-7 0 0,12 3-425,-24-3 0,7 2 0,6-1 1,3 2-1,0-1 0,-4 0 0,-5 0 425,8 0 0,-6 0 0,-1 0 0,2 0 0,5 1-289,-8 1 1,5-1 0,2 1 0,1 0 0,2 0 0,-2 0-1,-1-1 289,-3-1 0,0 0 0,1 0 0,0 0 0,-3 0 0,-2 0 0,-2 0-103,9 1 1,-5 0 0,0 0 0,-1 0 0,4 1 102,2-2 0,3 0 0,1 1 0,2-1 0,-4 2 0,-5-1-145,-2 2 1,-5 0-1,-1 0 1,1 0 0,3 0 144,-2-1 0,4 0 0,0 2 0,1-2 0,0 0 0,-3 1 87,11 3 0,0 0 1,-2 0-1,-4 0 1,-2 0-88,-3-2 0,-4-1 0,-1 0 0,0 0 264,5 1 1,1 1 0,-1-1 0,-6-1-265,-5 0 0,-3-2 0,-2 0 378,0 0 1,0 0-1,0 0-378,29 4 0,-8-2 3222,11 2-3222,-44-8 0,-2-1 0,16 3 3862,-3-6-3862,-36-11 0,15 8 0,49-8 383,-23 10 1,7 2-384,-5-1 0,7 0 0,2 0 0,6 0 0,3 0 0,3 0-979,-19 0 1,2 0 0,3 0 0,4 0 978,3 0 0,6 0 0,3 0 0,1 0 0,3 0-574,-9 2 1,2 0-1,3 0 1,0 0-1,2 0 1,3 0 573,-13-1 0,4-1 0,0 1 0,1-1 0,2 0 0,0 0 0,-1 0 0,1 1-323,0 0 0,0 0 1,1 1-1,0-1 1,-1 2-1,2-1 0,-1-1 1,2 1 322,-9-1 0,1 1 0,3-1 0,-2 1 0,1-1 0,-1 0 0,-3 1 0,-2-1 0,-1 0-186,15 0 0,-3-1 0,-3 0 1,-1 0-1,1 0 0,4 2 186,-3 0 0,3 1 0,2 1 0,0-1 0,-1 1 0,-5 0 0,-4-1 145,9 0 0,-6-1 0,-3 0 0,-1 1 0,0 0-145,-3 0 0,0 1 0,-2 0 0,0 0 0,2 1 0,3-1 0,3 0 0,0 0 0,-5 1 0,-7-1 0,9 2 0,-9 0 0,2-1 0,18-1 0,1-1 0,-8 0 0,-5 2 0,-7-2 984,13 0 0,-8-6-984,-10-16 3340,22 11-3340,-44-36 5017,-20 11-5017,24-22 0,-18 20 0,3-3 1285,5-4 1,3-3-1286,12-4 0,4-3-517,5-3 1,2 1 516,-3 6 0,-1 2 0,-13 10 0,0 2-330,3-2 0,-3 3 330,22-9 0,-30 15 0,-1 0 0,28-13 0,-8 3 0,-15 11 1379,0 6-1379,-7 6 2222,-6 5-2222,5 4 855,-10 1-855,-1 4 0,-1 0 0,-9 0 0,4 0 0,-5 0 0,-5 0 0,4 0 0,-11 0 0,6 0 0,-7 0 0,0 0 0,2 0 0,-2 0 0,0 0 0,3 0 0,-3 0 0,0 0 0,-1 0 0,-3 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,4 0 0,-3 0 0,3 0 0,-4 0 0,1 0 0,-1 0 0,1 3 0,-1-2 0,1 2 0,-1-3 0,1 0 0,-1 0 0,-2 3 0,1-3 0,-1 3 0,-1-8 0,0 1 0,-6-15 0,2 6 0,-2-9 0,-4 1 0,6 1 0,-9-2 0,6-2 0,-4 4 0,-1-9 0,-4-13 0,3 4 0,-4-14 0,1 10 0,2-12 0,-3 6 0,4-6 0,0 13 0,1-6 0,4 11 0,-3 0 0,3 2 0,1 4 0,-4-11 0,2-6 0,-8-9 0,3-5 0,-9-6 0,4-3 0,-1 6 0,-2-2 0,7 4 0,-7-1 0,3-5 0,1 7 0,0 6 0,5-4 0,-5-11 0,3 6 0,-5-19 0,1 6-456,4-9 456,-10-7 0,13 44 0,-1-2 0,-2 0 0,0-1 0,3-2 0,-1-3 0,-7-20 0,1 1 0,5-17 0,-5 23 0,1 3 0,8 2 0,-9-13 0,5 10 0,1 8 0,0-2 0,0-6 0,-2-1 0,6-1 0,-3 8 0,8 2 0,-3 6 0,0-2 0,3 4 0,-3 10 0,4 7 0,0 12 0,0 3 456,0 9-456,0 1 0,0-9 0,0-9 0,0-20 0,0-8 0,0 2 0,0-6 0,0 11 0,0-4 0,0 11 0,0 6 0,0 4 0,0 15 0,0 0 0,0 4 0,0-13 0,0-14 0,0-15 0,0-21 0,0 5 0,0 1 0,0-4 0,0 17 0,0-4 0,0 12 0,0 9 0,0 9 0,0 7 0,0 1 0,0 7 0,-7-3 0,5 4 0,-4-4 0,2 0 0,3-5 0,-6-1 0,6 1 0,-2 4 0,-1-4 0,3 12 0,-2-2 0,3 7 0,0 1 0,-3-1 0,2 4 0,-1 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-42654">27912 548 24575,'-5'14'0,"-13"8"0,-12 29 0,-18 11 0,6 7 0,-2 3 0,12-30 0,0 1 0,-19 37 0,1 3-970,15-32 1,0-1 969,-6 14 0,2 0 0,12-15 0,0-3 36,-5 3 1,2-4-37,2 12 0,-13 3 0,16-18 0,7-15 0,8-12 0,3-5 0,0-7 360,1 0 0,2-3 1,1 0-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-41552">27930 554 24575,'8'14'0,"12"15"0,16 16 0,27 23 0,-17-13 0,-3-13 0,1-1 0,13 25 0,-11-22 0,0 0 0,4 15 0,18 6 0,-36-25 0,18 2 0,-21-9 0,-4-16 0,-17-7 0,-4-6 0,-11-1 0,2-3 0,-1 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5801">10023 2107 24575,'10'0'0,"0"0"0,12 0 0,-9 0 0,3 0 0,-9 0 0,-1 0 0,1 0 0,-4 3 0,0 4 0,-7 7 0,0 3 0,0 6 0,-7-4 0,6 10 0,-7-3 0,-1 7 0,3-3 0,-6 6 0,2-2 0,0 7 0,-2-5 0,2 4 0,0 1 0,2-9 0,-1 7 0,4-9 0,-4 0 0,5 0 0,0-2 0,0-3 0,-1 4 0,1-4 0,0-2 0,4 1 0,-3 1 0,3-5 0,-4 2 0,3-6 0,2 2 0,0-7 0,2 4 0,-2-8 0,0 3 0,3-3 0,-3-1 0,-4 1 0,3-1 0,-7 1 0,5-1 0,-4 4 0,2-3 0,-2 1 0,6-3 0,-1-4 0,9 2 0,5-3 0,15 0 0,6-4 0,5-1 0,20-5 0,-15 1 0,15 0 0,-20 0 0,-8 4 0,-4-2 0,-9 7 0,1-7 0,-4 6 0,-1-5 0,-6 5 0,-1-2 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7201">10310 2635 24575,'0'13'0,"0"7"0,0 0 0,0 3 0,0-5 0,0 11 0,0 5 0,0-5 0,0 4 0,0-17 0,0 5 0,0-6 0,0-5 0,0-4 0,0-5 0,0-9 0,0-8 0,4-8 0,4-5 0,3-1 0,5-6 0,-7 6 0,4-3 0,-6 12 0,1-8 0,0 13 0,-1-2 0,0 3 0,1 0 0,-1 0 0,0 0 0,1-3 0,3-2 0,1 0 0,3-4 0,5 4 0,-4 0 0,4 0 0,-6 8 0,5 1 0,-3 3 0,7 0 0,-11 4 0,6-3 0,-7 6 0,3-2 0,-3 3 0,3 0 0,-3 0 0,0 0 0,-1 0 0,0 3 0,-3 1 0,4 6 0,-4 6 0,1 4 0,0 9 0,0 1 0,1 5 0,-4 18 0,-1-7 0,-4 8 0,0-2 0,0-9 0,0 17 0,0-11 0,0 4 0,0-5 0,0-7 0,0-5 0,0-7 0,-4-9 0,3-5 0,-2-5 0,0-4 0,3 1 0,-3 0 0,3-3 0,0-1 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8441">11593 2639 24575,'-3'-4'0,"0"2"0,-7 2 0,-1 0 0,-4 0 0,1 0 0,-5 0 0,-1 0 0,-10 0 0,4 0 0,0 0 0,11 0 0,0 3 0,4-2 0,0 5 0,1-2 0,0 2 0,2 1 0,-6 0 0,3 0 0,-3 4 0,-1 1 0,1 2 0,-1 1 0,4-1 0,-3 1 0,6-1 0,-3 2 0,4-2 0,0 1 0,-1-1 0,4 5 0,-3 0 0,6 2 0,-2 7 0,3-3 0,0 11 0,0-2 0,0 1 0,0 1 0,0-2 0,0 2 0,3-6 0,2 3 0,3-12 0,3 7 0,6-7 0,4 0 0,3-1 0,16-1 0,-2-6 0,10-3 0,-2-6 0,-4-4 0,14 0 0,-17 0 0,5 0 0,-27 0 0,0-3 0,-9-1 0,2-6 0,-2-1 0,-4-9 0,3 0 0,-6 7 0,2 2 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9366">11958 1994 24575,'0'2'0,"0"12"0,0 16 0,0 19 0,0-1 0,0 12 0,0-11 0,0 25 0,0-15 0,0-7 0,0 16 0,0-43 0,0 34 0,0-23 0,0 5 0,0 2 0,0 2 0,0-2 0,0-2 0,0 5 0,0-10 0,0 10 0,0-9 0,0-2 0,0-1 0,0-4 0,0 5 0,0-4 0,0 2 0,0-8 0,0 5 0,0-11 0,0 0 0,0-8 0,0-1 0,0-4 0,0 1 0,0 0 0,0-7 0,0-24 0,0 14 0,0-16 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10694">12323 2837 21523,'4'2'0,"-2"3"1464,-2 8-1464,0 23 515,0-20-515,0 27 263,0-20-263,0 7 810,0 4-810,0 2 0,0-5 0,0 4 0,0-15 0,0-1 0,0-1 0,0-6 0,0 6 0,0-11 0,0 5 0,0-6 0,3 0 0,5 1 0,7-3 0,0-1 0,8-3 0,7-4 0,-7-8 0,17-8 0,-12-11 0,9-2 0,1-6 0,-1 2 0,-4-1 0,4 0 0,-9 5 0,0-3 0,-7 5 0,0 0 0,-6-3 0,4 8 0,-6-3 0,0-1 0,-2 5 0,-2-8 0,-1 7 0,0-8 0,0 9 0,0 0 0,0 2 0,-4 10 0,3-4 0,-6 9 0,2 4 0,-3 17 0,0 14 0,0 10 0,-5 14 0,-10 34 0,3-26 0,-12 34 0,13-50 0,-3 11 0,5-8 0,3-3 0,-2-3 0,7-5 0,-2-9 0,-1 2 0,3-13 0,-3 5 0,4-6 0,0 1 0,0-4 0,0-1 0,0-4 0,0 1 0,0-32 0,0 5 0,0-14 0,0 19 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12432">13881 2946 24575,'-2'-4'0,"-5"1"0,-3 3 0,-4 0 0,-1 0 0,4 0 0,-8 0 0,7 0 0,-7 0 0,5 0 0,-5 0 0,7 0 0,-10 0 0,6 0 0,-8 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,2 0 0,-2 0 0,3 0 0,0 0 0,-2 0 0,6 0 0,-3 0 0,8 0 0,-2 4 0,5-1 0,-6 5 0,6 2 0,-2 2 0,-1 2 0,3 5 0,-3 1 0,3 3 0,0 7 0,-1 0 0,4 4 0,-3 2 0,7-1 0,-3 0 0,4 0 0,0-1 0,0 2 0,0-1 0,7 6 0,2-14 0,6 2 0,0-14 0,-1-3 0,0-1 0,1-4 0,-1-3 0,5-1 0,1-3 0,8 0 0,2-4 0,6-9 0,0-12 0,10-16 0,0-11 0,5-15-834,-17 14 1,-1-4 833,-2-3 0,1-4 0,5-19 0,-3 0 0,-9 17 0,-1 1 0,4-19 0,-3 3 0,-4-14-524,1 23 1,0 0 523,-3-18-247,-3 35 0,-1 1 247,2-25 0,-1 3 0,-3 12 1531,-6 22-1531,0-1 1108,-7 31-1108,0-3 569,0 8-569,0 8 0,0 9 0,-8 19 0,-2 2 0,-14 22 0,-16 37 0,4-5-3392,3-2 0,1 3 3392,14-29 0,2-1 0,-4 7 0,2-2-177,-4 35 177,10-31 0,-4 19 0,5-14 0,1-3 0,4-12 0,-2-1 0,3-13 6696,-2 6-6696,0-11 265,2-1-265,0-1 0,-2-4 0,2 0 0,1-1 0,-4-5 0,8 0 0,-4-4 0,4-1 0,0-4 0,0-4 0,0-1 0,0-4 0,0 1 0,0-4 0,0 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="13904">14152 3158 24575,'2'3'0,"6"0"0,2-3 0,1 0 0,3 0 0,-7 0 0,3 0 0,-3 0 0,-1 0 0,-2-3 0,-2-4 0,-2-9 0,0 0 0,0-7 0,0 8 0,0-8 0,0 2 0,0 5 0,0-2 0,-6 7 0,4 0 0,-11 0 0,5 7 0,-3 0 0,-7 4 0,6 0 0,-11 0 0,4 0 0,-10 0 0,-2 0 0,-4 5 0,1 0 0,4 7 0,-4-3 0,9 6 0,1-6 0,5 2 0,8-4 0,1 0 0,3-4 0,0 3 0,0 7 0,-1 3 0,-4 8 0,3 4 0,-3 3 0,4-1 0,-1 3 0,4-2 0,2 4 0,3-1 0,0 2 0,0-6 0,0 4 0,0-9 0,3 3 0,5-4 0,4 1 0,9 0 0,0-8 0,4 2 0,15-9 0,-12 3 0,22-8 0,-13-1 0,10-4 0,-5 0 0,3 0 0,-14 0 0,3 0 0,-14-4 0,-1 0 0,-8 0 0,-1 1 0,-4 0 0,1 2 0,-1-6 0,1 0 0,0-4 0,0-4 0,5-3 0,-4-7 0,0 10 0,-4-1 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="14709">13987 3396 24575,'17'0'0,"2"0"0,9 0 0,-7 0 0,8 0 0,-5-4 0,1 3 0,0-2 0,-10 3 0,-8 0 0,-4 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="15917">15109 2869 24575,'-9'0'0,"2"0"0,-6 0 0,-7 0 0,1 0 0,-5 0 0,2 4 0,2 5 0,-8 4 0,10 6 0,-9-1 0,9 1 0,1-3 0,0-4 0,12 2 0,-5-6 0,9 2 0,-4-4 0,4 1 0,-2-1 0,3 0 0,0 1 0,0-1 0,0 1 0,6 0 0,6 4 0,14 7 0,11 0 0,-5 0 0,12 0 0,-7-3 0,4 3 0,5 0 0,-10-4 0,0 2 0,-7-7 0,-10 3 0,0-1 0,-5-3 0,-3 2 0,-1-3 0,-3 0 0,-3-1 0,-2 1 0,-2-1 0,-3 4 0,-8 3 0,-6 2 0,-8 5 0,-4-2 0,3 2 0,-8-1 0,4-3 0,0-3 0,-15 5 0,7-8 0,-21 4 0,4-9 0,-13 0 0,12-5 0,-9 0 0,3 0 0,-1 0 0,2 0 0,14 0 0,11 0 0,8 0 0,11 0 0,0-3 0,12-1 0,-4 0 0,8-2 0,-2 2 0,3 1 0,0 0 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -1759,7 +1759,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CDA9BF8-F9E7-B045-9303-5204BE26C61E}">
   <dimension ref="A1:T17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="139" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
